--- a/Test01_管道材料等级索引表.xlsx
+++ b/Test01_管道材料等级索引表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="860">
   <si>
     <t>5</t>
   </si>
@@ -3523,22 +3523,6 @@
   </si>
   <si>
     <t>注1,注5</t>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试类</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4276,6 +4260,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4285,13 +4278,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4301,12 +4291,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4876,11 +4860,11 @@
   <dimension ref="A1:Q3246"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C334" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M15" sqref="M15"/>
       <selection pane="topRight" activeCell="M15" sqref="M15"/>
       <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
-      <selection pane="bottomRight" activeCell="A341" sqref="A341"/>
+      <selection pane="bottomRight" activeCell="J337" sqref="J337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -22044,9 +22028,7 @@
       </c>
     </row>
     <row r="341" spans="1:17" s="56" customFormat="1" ht="25.5">
-      <c r="A341" s="60" t="s">
-        <v>860</v>
-      </c>
+      <c r="A341" s="60"/>
       <c r="B341" s="61"/>
       <c r="C341" s="61"/>
       <c r="D341" s="61"/>
@@ -44825,64 +44807,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="10.5" customHeight="1">
-      <c r="A1" s="102"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106" t="s">
         <v>507</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="10.5" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
       <c r="L2" s="49"/>
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:16" ht="10.5" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
       <c r="L3" s="49"/>
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:16" ht="10.5" customHeight="1">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
     </row>
@@ -44972,10 +44954,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A7" s="105">
+      <c r="A7" s="102">
         <v>1</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="102" t="s">
         <v>187</v>
       </c>
       <c r="C7" s="56" t="s">
@@ -44987,22 +44969,22 @@
       <c r="E7" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="105" t="s">
+      <c r="I7" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="102" t="s">
         <v>353</v>
       </c>
-      <c r="K7" s="105" t="s">
+      <c r="K7" s="102" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="56"/>
@@ -45020,8 +45002,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103" t="s">
         <v>187</v>
       </c>
       <c r="C8" s="56" t="s">
@@ -45033,22 +45015,22 @@
       <c r="E8" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="106" t="s">
+      <c r="J8" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="K8" s="106" t="s">
+      <c r="K8" s="103" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="56"/>
@@ -45066,10 +45048,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="47" customFormat="1" ht="38.25">
-      <c r="A9" s="105">
+      <c r="A9" s="102">
         <v>2</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="102" t="s">
         <v>188</v>
       </c>
       <c r="C9" s="56" t="s">
@@ -45081,22 +45063,22 @@
       <c r="E9" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="102" t="s">
         <v>353</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="102" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="56"/>
@@ -45114,8 +45096,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="103" t="s">
         <v>188</v>
       </c>
       <c r="C10" s="56" t="s">
@@ -45127,22 +45109,22 @@
       <c r="E10" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="106" t="s">
+      <c r="J10" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="K10" s="106" t="s">
+      <c r="K10" s="103" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="56"/>
@@ -45250,10 +45232,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A13" s="105">
+      <c r="A13" s="102">
         <v>5</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="102" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="56" t="s">
@@ -45265,22 +45247,22 @@
       <c r="E13" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="102" t="s">
         <v>353</v>
       </c>
-      <c r="K13" s="105" t="s">
+      <c r="K13" s="102" t="s">
         <v>610</v>
       </c>
       <c r="L13" s="56"/>
@@ -45298,8 +45280,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="103" t="s">
         <v>189</v>
       </c>
       <c r="C14" s="56" t="s">
@@ -45311,22 +45293,22 @@
       <c r="E14" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="H14" s="106" t="s">
+      <c r="H14" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="106" t="s">
+      <c r="I14" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="K14" s="106" t="s">
+      <c r="K14" s="103" t="s">
         <v>610</v>
       </c>
       <c r="L14" s="56"/>
@@ -45730,10 +45712,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A23" s="105">
+      <c r="A23" s="102">
         <v>14</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="102" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="56" t="s">
@@ -45745,20 +45727,20 @@
       <c r="E23" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="105" t="s">
+      <c r="G23" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="105" t="s">
+      <c r="H23" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="105" t="s">
+      <c r="I23" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105" t="s">
+      <c r="J23" s="102"/>
+      <c r="K23" s="102" t="s">
         <v>230</v>
       </c>
       <c r="L23" s="56" t="s">
@@ -45778,8 +45760,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107" t="s">
+      <c r="A24" s="104"/>
+      <c r="B24" s="104" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="56" t="s">
@@ -45791,20 +45773,20 @@
       <c r="E24" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="107" t="s">
+      <c r="F24" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="107" t="s">
+      <c r="H24" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107" t="s">
+      <c r="J24" s="104"/>
+      <c r="K24" s="104" t="s">
         <v>230</v>
       </c>
       <c r="L24" s="56" t="s">
@@ -45824,8 +45806,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106" t="s">
+      <c r="A25" s="103"/>
+      <c r="B25" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="56" t="s">
@@ -45837,20 +45819,20 @@
       <c r="E25" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="106" t="s">
+      <c r="F25" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="106" t="s">
+      <c r="G25" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="106" t="s">
+      <c r="H25" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="106" t="s">
+      <c r="I25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106" t="s">
+      <c r="J25" s="103"/>
+      <c r="K25" s="103" t="s">
         <v>230</v>
       </c>
       <c r="L25" s="56" t="s">
@@ -45870,10 +45852,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A26" s="105">
+      <c r="A26" s="102">
         <v>15</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="102" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="56" t="s">
@@ -45885,20 +45867,20 @@
       <c r="E26" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="105" t="s">
+      <c r="G26" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="105" t="s">
+      <c r="H26" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="105" t="s">
+      <c r="I26" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105" t="s">
+      <c r="J26" s="102"/>
+      <c r="K26" s="102" t="s">
         <v>571</v>
       </c>
       <c r="L26" s="56" t="s">
@@ -45918,8 +45900,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106" t="s">
+      <c r="A27" s="103"/>
+      <c r="B27" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="56" t="s">
@@ -45931,20 +45913,20 @@
       <c r="E27" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="106" t="s">
+      <c r="F27" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="106" t="s">
+      <c r="H27" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="106" t="s">
+      <c r="I27" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106" t="s">
+      <c r="J27" s="103"/>
+      <c r="K27" s="103" t="s">
         <v>571</v>
       </c>
       <c r="L27" s="56" t="s">
@@ -46014,10 +45996,10 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A29" s="105">
+      <c r="A29" s="102">
         <v>17</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="102" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="56" t="s">
@@ -46029,22 +46011,22 @@
       <c r="E29" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="105" t="s">
+      <c r="F29" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="105" t="s">
+      <c r="G29" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="105" t="s">
+      <c r="H29" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="105" t="s">
+      <c r="I29" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="J29" s="105" t="s">
+      <c r="J29" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="K29" s="105" t="s">
+      <c r="K29" s="102" t="s">
         <v>585</v>
       </c>
       <c r="L29" s="56" t="s">
@@ -46064,8 +46046,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106" t="s">
+      <c r="A30" s="103"/>
+      <c r="B30" s="103" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="56" t="s">
@@ -46077,22 +46059,22 @@
       <c r="E30" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="106" t="s">
+      <c r="F30" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="106" t="s">
+      <c r="G30" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="106" t="s">
+      <c r="H30" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="106" t="s">
+      <c r="I30" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="106" t="s">
+      <c r="J30" s="103" t="s">
         <v>306</v>
       </c>
-      <c r="K30" s="106" t="s">
+      <c r="K30" s="103" t="s">
         <v>585</v>
       </c>
       <c r="L30" s="56" t="s">
@@ -46740,10 +46722,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A44" s="105">
+      <c r="A44" s="102">
         <v>31</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="102" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="56" t="s">
@@ -46755,20 +46737,20 @@
       <c r="E44" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="F44" s="105" t="s">
+      <c r="F44" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="105" t="s">
+      <c r="G44" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="H44" s="105" t="s">
+      <c r="H44" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="105" t="s">
+      <c r="I44" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105" t="s">
+      <c r="J44" s="102"/>
+      <c r="K44" s="102" t="s">
         <v>595</v>
       </c>
       <c r="L44" s="56" t="s">
@@ -46788,8 +46770,8 @@
       </c>
     </row>
     <row r="45" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A45" s="106"/>
-      <c r="B45" s="106" t="s">
+      <c r="A45" s="103"/>
+      <c r="B45" s="103" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="56" t="s">
@@ -46801,20 +46783,20 @@
       <c r="E45" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="F45" s="106" t="s">
+      <c r="F45" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="H45" s="106" t="s">
+      <c r="H45" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="I45" s="106" t="s">
+      <c r="I45" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106" t="s">
+      <c r="J45" s="103"/>
+      <c r="K45" s="103" t="s">
         <v>595</v>
       </c>
       <c r="L45" s="56" t="s">
@@ -46930,10 +46912,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A48" s="105">
+      <c r="A48" s="102">
         <v>34</v>
       </c>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="102" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="56" t="s">
@@ -46945,20 +46927,20 @@
       <c r="E48" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="105" t="s">
+      <c r="F48" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="105" t="s">
+      <c r="G48" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="105" t="s">
+      <c r="H48" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="I48" s="105" t="s">
+      <c r="I48" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105" t="s">
+      <c r="J48" s="102"/>
+      <c r="K48" s="102" t="s">
         <v>658</v>
       </c>
       <c r="L48" s="56" t="s">
@@ -46978,8 +46960,8 @@
       </c>
     </row>
     <row r="49" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A49" s="106"/>
-      <c r="B49" s="106" t="s">
+      <c r="A49" s="103"/>
+      <c r="B49" s="103" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="56" t="s">
@@ -46991,20 +46973,20 @@
       <c r="E49" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F49" s="106" t="s">
+      <c r="F49" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="106" t="s">
+      <c r="G49" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="H49" s="106" t="s">
+      <c r="H49" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="I49" s="106" t="s">
+      <c r="I49" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106" t="s">
+      <c r="J49" s="103"/>
+      <c r="K49" s="103" t="s">
         <v>658</v>
       </c>
       <c r="L49" s="56" t="s">
@@ -47024,10 +47006,10 @@
       </c>
     </row>
     <row r="50" spans="1:16" s="47" customFormat="1" ht="76.5">
-      <c r="A50" s="105">
+      <c r="A50" s="102">
         <v>35</v>
       </c>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="102" t="s">
         <v>31</v>
       </c>
       <c r="C50" s="56" t="s">
@@ -47039,20 +47021,20 @@
       <c r="E50" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F50" s="105" t="s">
+      <c r="F50" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="105" t="s">
+      <c r="G50" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="105" t="s">
+      <c r="H50" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="I50" s="105" t="s">
+      <c r="I50" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105" t="s">
+      <c r="J50" s="102"/>
+      <c r="K50" s="102" t="s">
         <v>584</v>
       </c>
       <c r="L50" s="56" t="s">
@@ -47072,8 +47054,8 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="47" customFormat="1" ht="38.25">
-      <c r="A51" s="106"/>
-      <c r="B51" s="106" t="s">
+      <c r="A51" s="103"/>
+      <c r="B51" s="103" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="56" t="s">
@@ -47085,20 +47067,20 @@
       <c r="E51" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="F51" s="106" t="s">
+      <c r="F51" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="106" t="s">
+      <c r="G51" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="H51" s="106" t="s">
+      <c r="H51" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="106" t="s">
+      <c r="I51" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106" t="s">
+      <c r="J51" s="103"/>
+      <c r="K51" s="103" t="s">
         <v>584</v>
       </c>
       <c r="L51" s="56" t="s">
@@ -47652,10 +47634,10 @@
       </c>
     </row>
     <row r="63" spans="1:16" s="47" customFormat="1" ht="51">
-      <c r="A63" s="105">
+      <c r="A63" s="102">
         <v>47</v>
       </c>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="102" t="s">
         <v>202</v>
       </c>
       <c r="C63" s="56" t="s">
@@ -47667,20 +47649,20 @@
       <c r="E63" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="F63" s="105" t="s">
+      <c r="F63" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="G63" s="105" t="s">
+      <c r="G63" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="H63" s="105" t="s">
+      <c r="H63" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="105" t="s">
+      <c r="I63" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105" t="s">
+      <c r="J63" s="102"/>
+      <c r="K63" s="102" t="s">
         <v>661</v>
       </c>
       <c r="L63" s="56" t="s">
@@ -47700,8 +47682,8 @@
       </c>
     </row>
     <row r="64" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A64" s="106"/>
-      <c r="B64" s="106" t="s">
+      <c r="A64" s="103"/>
+      <c r="B64" s="103" t="s">
         <v>202</v>
       </c>
       <c r="C64" s="56" t="s">
@@ -47713,20 +47695,20 @@
       <c r="E64" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="F64" s="106" t="s">
+      <c r="F64" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="G64" s="106" t="s">
+      <c r="G64" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="H64" s="106" t="s">
+      <c r="H64" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="106" t="s">
+      <c r="I64" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J64" s="106"/>
-      <c r="K64" s="106" t="s">
+      <c r="J64" s="103"/>
+      <c r="K64" s="103" t="s">
         <v>661</v>
       </c>
       <c r="L64" s="56" t="s">
@@ -48228,10 +48210,10 @@
       </c>
     </row>
     <row r="75" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A75" s="105">
+      <c r="A75" s="102">
         <v>58</v>
       </c>
-      <c r="B75" s="105" t="s">
+      <c r="B75" s="102" t="s">
         <v>44</v>
       </c>
       <c r="C75" s="56" t="s">
@@ -48243,20 +48225,20 @@
       <c r="E75" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="F75" s="105" t="s">
+      <c r="F75" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="105" t="s">
+      <c r="G75" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="105" t="s">
+      <c r="H75" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I75" s="105" t="s">
+      <c r="I75" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="105"/>
-      <c r="K75" s="105" t="s">
+      <c r="J75" s="102"/>
+      <c r="K75" s="102" t="s">
         <v>668</v>
       </c>
       <c r="L75" s="56" t="s">
@@ -48276,8 +48258,8 @@
       </c>
     </row>
     <row r="76" spans="1:16" s="47" customFormat="1" ht="51">
-      <c r="A76" s="106"/>
-      <c r="B76" s="106" t="s">
+      <c r="A76" s="103"/>
+      <c r="B76" s="103" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="56" t="s">
@@ -48289,20 +48271,20 @@
       <c r="E76" s="56" t="s">
         <v>349</v>
       </c>
-      <c r="F76" s="106" t="s">
+      <c r="F76" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="106" t="s">
+      <c r="G76" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="H76" s="106" t="s">
+      <c r="H76" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I76" s="106" t="s">
+      <c r="I76" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="106"/>
-      <c r="K76" s="106" t="s">
+      <c r="J76" s="103"/>
+      <c r="K76" s="103" t="s">
         <v>668</v>
       </c>
       <c r="L76" s="56" t="s">
@@ -48372,10 +48354,10 @@
       </c>
     </row>
     <row r="78" spans="1:16" s="47" customFormat="1" ht="38.25">
-      <c r="A78" s="105">
+      <c r="A78" s="102">
         <v>60</v>
       </c>
-      <c r="B78" s="105" t="s">
+      <c r="B78" s="102" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="56" t="s">
@@ -48387,20 +48369,20 @@
       <c r="E78" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F78" s="105" t="s">
+      <c r="F78" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="G78" s="105" t="s">
+      <c r="G78" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="H78" s="105" t="s">
+      <c r="H78" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I78" s="105" t="s">
+      <c r="I78" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J78" s="105"/>
-      <c r="K78" s="105" t="s">
+      <c r="J78" s="102"/>
+      <c r="K78" s="102" t="s">
         <v>670</v>
       </c>
       <c r="L78" s="56" t="s">
@@ -48420,8 +48402,8 @@
       </c>
     </row>
     <row r="79" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A79" s="106"/>
-      <c r="B79" s="106" t="s">
+      <c r="A79" s="103"/>
+      <c r="B79" s="103" t="s">
         <v>46</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -48433,20 +48415,20 @@
       <c r="E79" s="56" t="s">
         <v>424</v>
       </c>
-      <c r="F79" s="106" t="s">
+      <c r="F79" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="106" t="s">
+      <c r="G79" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="H79" s="106" t="s">
+      <c r="H79" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I79" s="106" t="s">
+      <c r="I79" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J79" s="106"/>
-      <c r="K79" s="106" t="s">
+      <c r="J79" s="103"/>
+      <c r="K79" s="103" t="s">
         <v>670</v>
       </c>
       <c r="L79" s="56" t="s">
@@ -48802,10 +48784,10 @@
       </c>
     </row>
     <row r="87" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A87" s="105">
+      <c r="A87" s="102">
         <v>68</v>
       </c>
-      <c r="B87" s="105" t="s">
+      <c r="B87" s="102" t="s">
         <v>51</v>
       </c>
       <c r="C87" s="56" t="s">
@@ -48817,20 +48799,20 @@
       <c r="E87" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="F87" s="105" t="s">
+      <c r="F87" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="105" t="s">
+      <c r="G87" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="H87" s="105" t="s">
+      <c r="H87" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="I87" s="105" t="s">
+      <c r="I87" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J87" s="105"/>
-      <c r="K87" s="105" t="s">
+      <c r="J87" s="102"/>
+      <c r="K87" s="102" t="s">
         <v>676</v>
       </c>
       <c r="L87" s="56" t="s">
@@ -48850,8 +48832,8 @@
       </c>
     </row>
     <row r="88" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A88" s="106"/>
-      <c r="B88" s="106" t="s">
+      <c r="A88" s="103"/>
+      <c r="B88" s="103" t="s">
         <v>51</v>
       </c>
       <c r="C88" s="56" t="s">
@@ -48863,20 +48845,20 @@
       <c r="E88" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="F88" s="106" t="s">
+      <c r="F88" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G88" s="106" t="s">
+      <c r="G88" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="H88" s="106" t="s">
+      <c r="H88" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="106" t="s">
+      <c r="I88" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J88" s="106"/>
-      <c r="K88" s="106" t="s">
+      <c r="J88" s="103"/>
+      <c r="K88" s="103" t="s">
         <v>676</v>
       </c>
       <c r="L88" s="56" t="s">
@@ -48992,10 +48974,10 @@
       </c>
     </row>
     <row r="91" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A91" s="105">
+      <c r="A91" s="102">
         <v>71</v>
       </c>
-      <c r="B91" s="105" t="s">
+      <c r="B91" s="102" t="s">
         <v>53</v>
       </c>
       <c r="C91" s="56" t="s">
@@ -49007,22 +48989,22 @@
       <c r="E91" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F91" s="105" t="s">
+      <c r="F91" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="G91" s="105" t="s">
+      <c r="G91" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="H91" s="105" t="s">
+      <c r="H91" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I91" s="105" t="s">
+      <c r="I91" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J91" s="105" t="s">
+      <c r="J91" s="102" t="s">
         <v>638</v>
       </c>
-      <c r="K91" s="105" t="s">
+      <c r="K91" s="102" t="s">
         <v>678</v>
       </c>
       <c r="L91" s="56" t="s">
@@ -49042,8 +49024,8 @@
       </c>
     </row>
     <row r="92" spans="1:16" s="47" customFormat="1" ht="51">
-      <c r="A92" s="106"/>
-      <c r="B92" s="106" t="s">
+      <c r="A92" s="103"/>
+      <c r="B92" s="103" t="s">
         <v>53</v>
       </c>
       <c r="C92" s="56" t="s">
@@ -49055,22 +49037,22 @@
       <c r="E92" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F92" s="106" t="s">
+      <c r="F92" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="G92" s="106" t="s">
+      <c r="G92" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="H92" s="106" t="s">
+      <c r="H92" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I92" s="106" t="s">
+      <c r="I92" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J92" s="106" t="s">
+      <c r="J92" s="103" t="s">
         <v>638</v>
       </c>
-      <c r="K92" s="106" t="s">
+      <c r="K92" s="103" t="s">
         <v>678</v>
       </c>
       <c r="L92" s="56" t="s">
@@ -49138,10 +49120,10 @@
       </c>
     </row>
     <row r="94" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A94" s="105">
+      <c r="A94" s="102">
         <v>73</v>
       </c>
-      <c r="B94" s="105" t="s">
+      <c r="B94" s="102" t="s">
         <v>56</v>
       </c>
       <c r="C94" s="56" t="s">
@@ -49153,22 +49135,22 @@
       <c r="E94" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F94" s="105" t="s">
+      <c r="F94" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="G94" s="105" t="s">
+      <c r="G94" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="H94" s="105" t="s">
+      <c r="H94" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I94" s="105" t="s">
+      <c r="I94" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J94" s="105" t="s">
+      <c r="J94" s="102" t="s">
         <v>364</v>
       </c>
-      <c r="K94" s="105" t="s">
+      <c r="K94" s="102" t="s">
         <v>680</v>
       </c>
       <c r="L94" s="56" t="s">
@@ -49188,8 +49170,8 @@
       </c>
     </row>
     <row r="95" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A95" s="106"/>
-      <c r="B95" s="106" t="s">
+      <c r="A95" s="103"/>
+      <c r="B95" s="103" t="s">
         <v>56</v>
       </c>
       <c r="C95" s="56" t="s">
@@ -49201,22 +49183,22 @@
       <c r="E95" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="F95" s="106" t="s">
+      <c r="F95" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="G95" s="106" t="s">
+      <c r="G95" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="H95" s="106" t="s">
+      <c r="H95" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I95" s="106" t="s">
+      <c r="I95" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J95" s="106" t="s">
+      <c r="J95" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="K95" s="106" t="s">
+      <c r="K95" s="103" t="s">
         <v>680</v>
       </c>
       <c r="L95" s="56" t="s">
@@ -49286,10 +49268,10 @@
       </c>
     </row>
     <row r="97" spans="1:16" s="47" customFormat="1" ht="38.25">
-      <c r="A97" s="105">
+      <c r="A97" s="102">
         <v>75</v>
       </c>
-      <c r="B97" s="105" t="s">
+      <c r="B97" s="102" t="s">
         <v>55</v>
       </c>
       <c r="C97" s="56" t="s">
@@ -49301,20 +49283,20 @@
       <c r="E97" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="F97" s="105" t="s">
+      <c r="F97" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="105" t="s">
+      <c r="G97" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="H97" s="105" t="s">
+      <c r="H97" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I97" s="105" t="s">
+      <c r="I97" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J97" s="105"/>
-      <c r="K97" s="105" t="s">
+      <c r="J97" s="102"/>
+      <c r="K97" s="102" t="s">
         <v>682</v>
       </c>
       <c r="L97" s="56" t="s">
@@ -49334,8 +49316,8 @@
       </c>
     </row>
     <row r="98" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A98" s="106"/>
-      <c r="B98" s="106" t="s">
+      <c r="A98" s="103"/>
+      <c r="B98" s="103" t="s">
         <v>55</v>
       </c>
       <c r="C98" s="56" t="s">
@@ -49347,20 +49329,20 @@
       <c r="E98" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="F98" s="106" t="s">
+      <c r="F98" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="G98" s="106" t="s">
+      <c r="G98" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="H98" s="106" t="s">
+      <c r="H98" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I98" s="106" t="s">
+      <c r="I98" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J98" s="106"/>
-      <c r="K98" s="106" t="s">
+      <c r="J98" s="103"/>
+      <c r="K98" s="103" t="s">
         <v>682</v>
       </c>
       <c r="L98" s="56" t="s">
@@ -50010,10 +49992,10 @@
       </c>
     </row>
     <row r="112" spans="1:16" s="47" customFormat="1" ht="38.25">
-      <c r="A112" s="105">
+      <c r="A112" s="102">
         <v>89</v>
       </c>
-      <c r="B112" s="105" t="s">
+      <c r="B112" s="102" t="s">
         <v>71</v>
       </c>
       <c r="C112" s="56" t="s">
@@ -50025,22 +50007,22 @@
       <c r="E112" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F112" s="105" t="s">
+      <c r="F112" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="105" t="s">
+      <c r="G112" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="H112" s="105" t="s">
+      <c r="H112" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I112" s="105" t="s">
+      <c r="I112" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J112" s="105" t="s">
+      <c r="J112" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="K112" s="105" t="s">
+      <c r="K112" s="102" t="s">
         <v>593</v>
       </c>
       <c r="L112" s="56" t="s">
@@ -50060,8 +50042,8 @@
       </c>
     </row>
     <row r="113" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A113" s="106"/>
-      <c r="B113" s="106" t="s">
+      <c r="A113" s="103"/>
+      <c r="B113" s="103" t="s">
         <v>71</v>
       </c>
       <c r="C113" s="56" t="s">
@@ -50073,22 +50055,22 @@
       <c r="E113" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="F113" s="106" t="s">
+      <c r="F113" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="106" t="s">
+      <c r="G113" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="H113" s="106" t="s">
+      <c r="H113" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I113" s="106" t="s">
+      <c r="I113" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J113" s="106" t="s">
+      <c r="J113" s="103" t="s">
         <v>305</v>
       </c>
-      <c r="K113" s="106" t="s">
+      <c r="K113" s="103" t="s">
         <v>593</v>
       </c>
       <c r="L113" s="56" t="s">
@@ -50592,10 +50574,10 @@
       </c>
     </row>
     <row r="124" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A124" s="105">
+      <c r="A124" s="102">
         <v>100</v>
       </c>
-      <c r="B124" s="105" t="s">
+      <c r="B124" s="102" t="s">
         <v>78</v>
       </c>
       <c r="C124" s="56" t="s">
@@ -50607,20 +50589,20 @@
       <c r="E124" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F124" s="105" t="s">
+      <c r="F124" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="G124" s="105" t="s">
+      <c r="G124" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="H124" s="105" t="s">
+      <c r="H124" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I124" s="105" t="s">
+      <c r="I124" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105" t="s">
+      <c r="J124" s="102"/>
+      <c r="K124" s="102" t="s">
         <v>601</v>
       </c>
       <c r="L124" s="56" t="s">
@@ -50640,8 +50622,8 @@
       </c>
     </row>
     <row r="125" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A125" s="106"/>
-      <c r="B125" s="106" t="s">
+      <c r="A125" s="103"/>
+      <c r="B125" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C125" s="56" t="s">
@@ -50653,20 +50635,20 @@
       <c r="E125" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="F125" s="106" t="s">
+      <c r="F125" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="G125" s="106" t="s">
+      <c r="G125" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="H125" s="106" t="s">
+      <c r="H125" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="I125" s="106" t="s">
+      <c r="I125" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J125" s="106"/>
-      <c r="K125" s="106" t="s">
+      <c r="J125" s="103"/>
+      <c r="K125" s="103" t="s">
         <v>601</v>
       </c>
       <c r="L125" s="56" t="s">
@@ -50928,10 +50910,10 @@
       </c>
     </row>
     <row r="131" spans="1:16" s="47" customFormat="1" ht="38.25">
-      <c r="A131" s="105">
+      <c r="A131" s="102">
         <v>106</v>
       </c>
-      <c r="B131" s="105" t="s">
+      <c r="B131" s="102" t="s">
         <v>82</v>
       </c>
       <c r="C131" s="56" t="s">
@@ -50943,20 +50925,20 @@
       <c r="E131" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="F131" s="105" t="s">
+      <c r="F131" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="G131" s="105" t="s">
+      <c r="G131" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="H131" s="105" t="s">
+      <c r="H131" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="I131" s="105" t="s">
+      <c r="I131" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J131" s="105"/>
-      <c r="K131" s="105" t="s">
+      <c r="J131" s="102"/>
+      <c r="K131" s="102" t="s">
         <v>579</v>
       </c>
       <c r="L131" s="56" t="s">
@@ -50976,8 +50958,8 @@
       </c>
     </row>
     <row r="132" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A132" s="106"/>
-      <c r="B132" s="106" t="s">
+      <c r="A132" s="103"/>
+      <c r="B132" s="103" t="s">
         <v>82</v>
       </c>
       <c r="C132" s="56" t="s">
@@ -50989,20 +50971,20 @@
       <c r="E132" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="F132" s="106" t="s">
+      <c r="F132" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G132" s="106" t="s">
+      <c r="G132" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="H132" s="106" t="s">
+      <c r="H132" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="I132" s="106" t="s">
+      <c r="I132" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J132" s="106"/>
-      <c r="K132" s="106" t="s">
+      <c r="J132" s="103"/>
+      <c r="K132" s="103" t="s">
         <v>579</v>
       </c>
       <c r="L132" s="56" t="s">
@@ -51364,10 +51346,10 @@
       </c>
     </row>
     <row r="140" spans="1:16" s="47" customFormat="1" ht="38.25">
-      <c r="A140" s="105">
+      <c r="A140" s="102">
         <v>114</v>
       </c>
-      <c r="B140" s="105" t="s">
+      <c r="B140" s="102" t="s">
         <v>85</v>
       </c>
       <c r="C140" s="56" t="s">
@@ -51379,20 +51361,20 @@
       <c r="E140" s="56" t="s">
         <v>435</v>
       </c>
-      <c r="F140" s="105" t="s">
+      <c r="F140" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="G140" s="105" t="s">
+      <c r="G140" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="H140" s="105" t="s">
+      <c r="H140" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="I140" s="105" t="s">
+      <c r="I140" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J140" s="105"/>
-      <c r="K140" s="105" t="s">
+      <c r="J140" s="102"/>
+      <c r="K140" s="102" t="s">
         <v>704</v>
       </c>
       <c r="L140" s="56" t="s">
@@ -51412,8 +51394,8 @@
       </c>
     </row>
     <row r="141" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A141" s="107"/>
-      <c r="B141" s="107" t="s">
+      <c r="A141" s="104"/>
+      <c r="B141" s="104" t="s">
         <v>85</v>
       </c>
       <c r="C141" s="56" t="s">
@@ -51425,20 +51407,20 @@
       <c r="E141" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="F141" s="107" t="s">
+      <c r="F141" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="G141" s="107" t="s">
+      <c r="G141" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="H141" s="107" t="s">
+      <c r="H141" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="I141" s="107" t="s">
+      <c r="I141" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="J141" s="107"/>
-      <c r="K141" s="107" t="s">
+      <c r="J141" s="104"/>
+      <c r="K141" s="104" t="s">
         <v>704</v>
       </c>
       <c r="L141" s="56" t="s">
@@ -51458,8 +51440,8 @@
       </c>
     </row>
     <row r="142" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A142" s="106"/>
-      <c r="B142" s="106" t="s">
+      <c r="A142" s="103"/>
+      <c r="B142" s="103" t="s">
         <v>85</v>
       </c>
       <c r="C142" s="56" t="s">
@@ -51471,20 +51453,20 @@
       <c r="E142" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="F142" s="106" t="s">
+      <c r="F142" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G142" s="106" t="s">
+      <c r="G142" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="H142" s="106" t="s">
+      <c r="H142" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="I142" s="106" t="s">
+      <c r="I142" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J142" s="106"/>
-      <c r="K142" s="106" t="s">
+      <c r="J142" s="103"/>
+      <c r="K142" s="103" t="s">
         <v>704</v>
       </c>
       <c r="L142" s="56" t="s">
@@ -51746,10 +51728,10 @@
       </c>
     </row>
     <row r="148" spans="1:16" s="47" customFormat="1" ht="38.25">
-      <c r="A148" s="105">
+      <c r="A148" s="102">
         <v>120</v>
       </c>
-      <c r="B148" s="105" t="s">
+      <c r="B148" s="102" t="s">
         <v>206</v>
       </c>
       <c r="C148" s="56" t="s">
@@ -51761,20 +51743,20 @@
       <c r="E148" s="56" t="s">
         <v>429</v>
       </c>
-      <c r="F148" s="105" t="s">
+      <c r="F148" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="G148" s="105" t="s">
+      <c r="G148" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="H148" s="105" t="s">
+      <c r="H148" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="I148" s="105" t="s">
+      <c r="I148" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J148" s="105"/>
-      <c r="K148" s="105" t="s">
+      <c r="J148" s="102"/>
+      <c r="K148" s="102" t="s">
         <v>710</v>
       </c>
       <c r="L148" s="56" t="s">
@@ -51794,8 +51776,8 @@
       </c>
     </row>
     <row r="149" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A149" s="106"/>
-      <c r="B149" s="106" t="s">
+      <c r="A149" s="103"/>
+      <c r="B149" s="103" t="s">
         <v>206</v>
       </c>
       <c r="C149" s="56" t="s">
@@ -51807,20 +51789,20 @@
       <c r="E149" s="56" t="s">
         <v>437</v>
       </c>
-      <c r="F149" s="106" t="s">
+      <c r="F149" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G149" s="106" t="s">
+      <c r="G149" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="H149" s="106" t="s">
+      <c r="H149" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="I149" s="106" t="s">
+      <c r="I149" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J149" s="106"/>
-      <c r="K149" s="106" t="s">
+      <c r="J149" s="103"/>
+      <c r="K149" s="103" t="s">
         <v>710</v>
       </c>
       <c r="L149" s="56" t="s">
@@ -51986,10 +51968,10 @@
       </c>
     </row>
     <row r="153" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A153" s="105">
+      <c r="A153" s="102">
         <v>124</v>
       </c>
-      <c r="B153" s="105" t="s">
+      <c r="B153" s="102" t="s">
         <v>205</v>
       </c>
       <c r="C153" s="56" t="s">
@@ -52001,20 +51983,20 @@
       <c r="E153" s="56" t="s">
         <v>419</v>
       </c>
-      <c r="F153" s="105" t="s">
+      <c r="F153" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="G153" s="105" t="s">
+      <c r="G153" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="H153" s="105" t="s">
+      <c r="H153" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="I153" s="105" t="s">
+      <c r="I153" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J153" s="105"/>
-      <c r="K153" s="105" t="s">
+      <c r="J153" s="102"/>
+      <c r="K153" s="102" t="s">
         <v>714</v>
       </c>
       <c r="L153" s="56" t="s">
@@ -52034,8 +52016,8 @@
       </c>
     </row>
     <row r="154" spans="1:16" s="47" customFormat="1" ht="25.5">
-      <c r="A154" s="106"/>
-      <c r="B154" s="106" t="s">
+      <c r="A154" s="103"/>
+      <c r="B154" s="103" t="s">
         <v>205</v>
       </c>
       <c r="C154" s="56" t="s">
@@ -52047,20 +52029,20 @@
       <c r="E154" s="56" t="s">
         <v>421</v>
       </c>
-      <c r="F154" s="106" t="s">
+      <c r="F154" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G154" s="106" t="s">
+      <c r="G154" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="H154" s="106" t="s">
+      <c r="H154" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="I154" s="106" t="s">
+      <c r="I154" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J154" s="106"/>
-      <c r="K154" s="106" t="s">
+      <c r="J154" s="103"/>
+      <c r="K154" s="103" t="s">
         <v>714</v>
       </c>
       <c r="L154" s="56" t="s">
@@ -61779,103 +61761,65 @@
   </sheetData>
   <autoFilter ref="A6:P6"/>
   <mergeCells count="180">
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="K140:K142"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="F140:F142"/>
-    <mergeCell ref="G140:G142"/>
-    <mergeCell ref="H140:H142"/>
-    <mergeCell ref="I140:I142"/>
-    <mergeCell ref="J140:J142"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="D1:I4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A91:A92"/>
     <mergeCell ref="B148:B149"/>
     <mergeCell ref="B153:B154"/>
     <mergeCell ref="F7:F8"/>
@@ -61900,65 +61844,103 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="D1:I4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="K140:K142"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="G140:G142"/>
+    <mergeCell ref="H140:H142"/>
+    <mergeCell ref="I140:I142"/>
+    <mergeCell ref="J140:J142"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -62001,60 +61983,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109" t="s">
+      <c r="A1" s="110"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111" t="s">
         <v>776</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
@@ -62072,18 +62054,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="112" t="s">
         <v>780</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="112" t="s">
         <v>781</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -62097,10 +62079,10 @@
       <c r="E8" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="57" t="s">
         <v>784</v>
       </c>
@@ -62120,10 +62102,10 @@
       <c r="E9" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="108" t="s">
         <v>787</v>
       </c>
-      <c r="G9" s="112"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="57" t="s">
         <v>788</v>
       </c>
@@ -62143,10 +62125,10 @@
       <c r="E10" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="108" t="s">
         <v>790</v>
       </c>
-      <c r="G10" s="112"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="57" t="s">
         <v>791</v>
       </c>
@@ -62166,10 +62148,10 @@
       <c r="E11" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="108" t="s">
         <v>792</v>
       </c>
-      <c r="G11" s="112"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="57" t="s">
         <v>793</v>
       </c>
@@ -62189,10 +62171,10 @@
       <c r="E12" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="108" t="s">
         <v>795</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="57" t="s">
         <v>796</v>
       </c>
@@ -62212,10 +62194,10 @@
       <c r="E13" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="111" t="s">
+      <c r="F13" s="108" t="s">
         <v>797</v>
       </c>
-      <c r="G13" s="112"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="57" t="s">
         <v>798</v>
       </c>
@@ -62235,10 +62217,10 @@
       <c r="E14" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="112"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="57" t="s">
         <v>799</v>
       </c>
@@ -62258,10 +62240,10 @@
       <c r="E15" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="112"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="57" t="s">
         <v>800</v>
       </c>
@@ -62281,10 +62263,10 @@
       <c r="E16" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="108" t="s">
         <v>801</v>
       </c>
-      <c r="G16" s="112"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="57" t="s">
         <v>802</v>
       </c>
@@ -62304,10 +62286,10 @@
       <c r="E17" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="108" t="s">
         <v>804</v>
       </c>
-      <c r="G17" s="112"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="57" t="s">
         <v>805</v>
       </c>
@@ -62505,6 +62487,12 @@
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="F1:H4"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -62515,12 +62503,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="F1:H4"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
